--- a/medicine/Psychotrope/Bière_rouge/Bière_rouge.xlsx
+++ b/medicine/Psychotrope/Bière_rouge/Bière_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bi%C3%A8re_rouge</t>
+          <t>Bière_rouge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La bière rouge est un type de bière belge flamande à fermentation mixte : la fermentation haute est suivie pour une partie du brassin d'une fermentation spontanée secondaire en foudre de chêne, pendant au moins 24 mois. Le produit final est obtenu en mélangeant la bière « jeune » plus sucrée, et la bière « vieille » plus acide. Cette technique est réservée aux maîtres brasseurs, une confrérie composée  d une centaine d'experts de renommée.
 L'utilisation de malt caramélisé foncé lui donne sa couleur caractéristique.
